--- a/LAGOA_VERMELHA.xlsx
+++ b/LAGOA_VERMELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F492B0CC-1F65-4C53-A4DD-01C7C5E3D609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB3598E-52BE-488D-A909-AC2130C66D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1077,7 +1064,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1137,36 +1124,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,14 +1168,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{4735E776-90E4-42E8-A23D-A4E0C7D8F553}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{94A601B0-30CD-424B-BBCA-4ADF13645BC3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981DBB05-8A01-4384-9C76-CE8D46BCC838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2020A3-2311-4C21-BD5C-E112EB6B3DCC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4814772C-D492-405F-98EF-CBB97163E4CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E501F7A4-3FF0-419C-89F6-B1EFAFA293D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1392,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7964626-E5F7-4072-9F14-2F8D68BBD53E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458D0FE8-C466-4B82-9C88-683F3A22FEB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CAD41A6-7B0A-6E1B-1300-3AD6D7E97D37}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C39F9A-9E9C-F359-CDE1-896215CAD723}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1460,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C5824A5-A1DE-81AC-949C-409498620C16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E3D4BF-4803-2339-204F-9F04022AF62B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1479,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7409E5B4-4AD5-EB0A-F4CB-D890F2420421}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDAAF2C-0460-A1EB-7BCF-C9854FE7BE25}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1510,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E18786-1999-66DF-1ADF-C2BCA0F53FD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D74E31-4DA8-2FB8-DD48-ABC1BD19319A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1541,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E7557E-F9D5-2B21-019D-1882E07758AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55166F98-DBB3-9BCF-ED6D-14A7355995A3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1584,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE27B9DF-EAD6-4D4B-8860-B4B935987B5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FD0D5A-663D-4C1E-8706-D2A916DABB32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1622,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7331CC3-1D44-4322-9D0E-15957E62131C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9AEA2E-AEB8-42F4-9BAA-B5312E255217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1623,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF46285-206B-454E-8609-CAA7F583F0C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBAF810-8845-4077-8629-526F53D37581}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0BCA52-3939-46DF-8362-2ADA94947F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D011B5FC-D6EF-47A3-A0B5-57CF99FCE813}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1990,98 +1948,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5373,19 +5331,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5408,46 +5366,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5472,54 +5430,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5530,43 +5489,43 @@
       <c r="B2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45200</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>4109</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>11997</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1849</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>300</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5597,25 +5556,24 @@
       <c r="B1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="32">
         <v>169</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="35">
-        <v>169</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.117577040074064E-2</v>
       </c>
     </row>

--- a/LAGOA_VERMELHA.xlsx
+++ b/LAGOA_VERMELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFB3598E-52BE-488D-A909-AC2130C66D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F709BB-443D-488C-94CB-7D15599ACAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1216,7 +1216,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{94A601B0-30CD-424B-BBCA-4ADF13645BC3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{603A3730-7CCB-4AE5-90A6-C529E51D7EBE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1246,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2020A3-2311-4C21-BD5C-E112EB6B3DCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEEB018-FCBD-4C2A-874E-80BC0E6280F8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1287,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E501F7A4-3FF0-419C-89F6-B1EFAFA293D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8B0CCA-9318-43A9-B90F-E3EE7991BEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1350,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{458D0FE8-C466-4B82-9C88-683F3A22FEB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10DC398-D340-42BB-B053-C5575023D14A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1369,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C39F9A-9E9C-F359-CDE1-896215CAD723}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A63-602B-33EE-4C58-9E5A59456ED3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E3D4BF-4803-2339-204F-9F04022AF62B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AF4978-865B-3682-7A57-F6E57C4C7E94}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1437,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDAAF2C-0460-A1EB-7BCF-C9854FE7BE25}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219D2906-D7EB-3A21-BB43-9C7F66D2A008}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D74E31-4DA8-2FB8-DD48-ABC1BD19319A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A080BDF6-8358-EBD8-E0D0-CB9B5576CFBA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55166F98-DBB3-9BCF-ED6D-14A7355995A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B5CF0B-4C7A-530E-BE5D-9E6324FFA31E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1542,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FD0D5A-663D-4C1E-8706-D2A916DABB32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883B3A3D-BB41-4A94-9EDE-130BBC01C34D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1580,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9AEA2E-AEB8-42F4-9BAA-B5312E255217}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAA80A1-131A-48EA-A6BC-83517D02D47B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1623,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBAF810-8845-4077-8629-526F53D37581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2351409-EA86-4DBF-A8EF-D9A4EB642B4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D011B5FC-D6EF-47A3-A0B5-57CF99FCE813}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5030C4F-9912-426E-BC95-D6E13CBA686A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/LAGOA_VERMELHA.xlsx
+++ b/LAGOA_VERMELHA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F709BB-443D-488C-94CB-7D15599ACAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07A3245-B5CF-4BDB-8D2D-DAE7DD9B6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="303">
   <si>
     <t>COMARCA</t>
   </si>
@@ -935,15 +934,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>LAGOA VERMELHA</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,27 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{603A3730-7CCB-4AE5-90A6-C529E51D7EBE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{D4418781-5F69-4C94-8015-AFC8A6795324}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEEB018-FCBD-4C2A-874E-80BC0E6280F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1360-B99C-4C7C-8EB5-2A289E25EE51}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8B0CCA-9318-43A9-B90F-E3EE7991BEBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A74779-D07E-4D7E-B801-ED02346BAB34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10DC398-D340-42BB-B053-C5575023D14A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F404381A-7DF7-4D40-A9F5-087C430E1AE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0824A63-602B-33EE-4C58-9E5A59456ED3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF204E3-3AE1-AC90-9B8D-003D53B29211}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AF4978-865B-3682-7A57-F6E57C4C7E94}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045DBA7-98AB-B8F7-ACDA-0122B6CC1C77}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1437,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219D2906-D7EB-3A21-BB43-9C7F66D2A008}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1C34FB-0405-09D4-592A-5B653970BC79}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1468,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A080BDF6-8358-EBD8-E0D0-CB9B5576CFBA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51668250-8A50-A40B-6907-B59C92B97773}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1499,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B5CF0B-4C7A-530E-BE5D-9E6324FFA31E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95950B6B-5501-BDC1-2FEB-0A94D1307721}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883B3A3D-BB41-4A94-9EDE-130BBC01C34D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B96AF2-A1DB-4CED-B16F-2C7D4744808E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAA80A1-131A-48EA-A6BC-83517D02D47B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23360D35-598D-4F89-A2D7-E8EE39330C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1623,7 +1598,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2351409-EA86-4DBF-A8EF-D9A4EB642B4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655F6F22-F72B-48F5-8D7E-3BC324594BEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5030C4F-9912-426E-BC95-D6E13CBA686A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC90CA39-FEC9-403E-B2D4-688DA76A5F9B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1948,98 +1923,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5532,52 +5507,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="32">
-        <v>169</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.117577040074064E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/LAGOA_VERMELHA.xlsx
+++ b/LAGOA_VERMELHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07A3245-B5CF-4BDB-8D2D-DAE7DD9B6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A63757C0-A7D8-4542-8E46-E972FA584E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,7 +1191,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{D4418781-5F69-4C94-8015-AFC8A6795324}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DA668A80-0718-48DB-BABB-72A90C93814B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,10 +1221,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EF1360-B99C-4C7C-8EB5-2A289E25EE51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B09918E-33DC-41B7-AE7E-8C509FB2EE2C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A74779-D07E-4D7E-B801-ED02346BAB34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AA616C-F115-4C59-ACB3-EC1F0B6A90ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F404381A-7DF7-4D40-A9F5-087C430E1AE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA095BE-3020-4DC5-87F2-971427EB7AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF204E3-3AE1-AC90-9B8D-003D53B29211}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B5A8B5-2662-0569-502A-C2250C3D7FC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B045DBA7-98AB-B8F7-ACDA-0122B6CC1C77}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352B5914-268E-B1B6-DCE4-DD6CF90EBD9D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,7 +1412,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1C34FB-0405-09D4-592A-5B653970BC79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5889D95D-9F95-FBB0-56A1-C9A1F68A0B40}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51668250-8A50-A40B-6907-B59C92B97773}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614713F1-6C21-6121-6C92-A0FA1FD55029}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95950B6B-5501-BDC1-2FEB-0A94D1307721}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2BA27B-D79D-9FD9-3695-598A4DF667A9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B96AF2-A1DB-4CED-B16F-2C7D4744808E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57808516-9E04-4001-93AB-64E381476B8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23360D35-598D-4F89-A2D7-E8EE39330C54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354DBA16-653B-44E7-B467-520EC8174621}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,50 +1580,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{655F6F22-F72B-48F5-8D7E-3BC324594BEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1911,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC90CA39-FEC9-403E-B2D4-688DA76A5F9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA841C-9AA9-4531-9B01-FF006A2217C3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
